--- a/data/intermediate/cs_w1_10/pd_test_data.xlsx
+++ b/data/intermediate/cs_w1_10/pd_test_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>SentenceID</t>
   </si>
@@ -25,19 +25,25 @@
     <t>Sentiment</t>
   </si>
   <si>
+    <t>Unnamed: 3</t>
+  </si>
+  <si>
     <t>fan would have a hard time sit through this one .</t>
   </si>
   <si>
-    <t>come across a relic from bygone era and it convolution feel silly rather than plausible .</t>
-  </si>
-  <si>
-    <t>a bilingual charmer just like the woman who inspire it be worth see .</t>
+    <t>thank largely to williams all the interest development be process in 60 minute rest just an overexpose waste of film a relic bygone era.</t>
+  </si>
+  <si>
+    <t>a bilingual charmer just like the woman who inspire it worth see . i it.</t>
   </si>
   <si>
     <t>this quiet introspective and entertain independent be worth see .</t>
   </si>
   <si>
     <t>fresnadillo have something serious to say about the way in which extravagant chance can distort our perspective and throw u off path of good sense make thick with wit.</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -395,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,8 +417,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -420,27 +429,33 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>-1</v>
       </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -448,13 +463,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -462,13 +480,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -476,10 +497,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
